--- a/V1.1/PCB/BOM_Mesh Adv Pi Hat V1.1_PCB V1.1.xlsx
+++ b/V1.1/PCB/BOM_Mesh Adv Pi Hat V1.1_PCB V1.1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>No.</t>
   </si>
@@ -145,82 +145,55 @@
     <t>6</t>
   </si>
   <si>
-    <t>I2C</t>
-  </si>
-  <si>
-    <t>J1,J2</t>
-  </si>
-  <si>
-    <t>HDR-M-2.54_1X4</t>
-  </si>
-  <si>
-    <t>C124378</t>
+    <t>1kΩ</t>
+  </si>
+  <si>
+    <t>R1,R2</t>
+  </si>
+  <si>
+    <t>R0402</t>
+  </si>
+  <si>
+    <t>C11702</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>1kΩ</t>
-  </si>
-  <si>
-    <t>R1,R2</t>
-  </si>
-  <si>
-    <t>R0402</t>
-  </si>
-  <si>
-    <t>C11702</t>
+    <t>SMA-KWE903</t>
+  </si>
+  <si>
+    <t>RF1</t>
+  </si>
+  <si>
+    <t>SMA-TH_SMA-KWE903</t>
+  </si>
+  <si>
+    <t>DreamLNK(骏晔科技)</t>
+  </si>
+  <si>
+    <t>C914555</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>SMA-KWE903</t>
-  </si>
-  <si>
-    <t>RF1</t>
-  </si>
-  <si>
-    <t>SMA-TH_SMA-KWE903</t>
-  </si>
-  <si>
-    <t>DreamLNK(骏晔科技)</t>
-  </si>
-  <si>
-    <t>C914555</t>
+    <t>E22-900M30S</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>WIRELM-SMD_E22-900M30S</t>
+  </si>
+  <si>
+    <t>EBYTE(亿佰特)</t>
+  </si>
+  <si>
+    <t>C411294</t>
   </si>
   <si>
     <t>9</t>
-  </si>
-  <si>
-    <t>pi</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>RASPBERRY-PI-MODEL-B-FOOTPRINT</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>E22-900M30S</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>WIRELM-SMD_E22-900M30S</t>
-  </si>
-  <si>
-    <t>EBYTE(亿佰特)</t>
-  </si>
-  <si>
-    <t>C411294</t>
-  </si>
-  <si>
-    <t>11</t>
   </si>
   <si>
     <t>AMS1117-3.3V_C5120765</t>
@@ -615,7 +588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -853,7 +826,7 @@
         <v>48</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>49</v>
@@ -868,13 +841,13 @@
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J8" t="s">
         <v>18</v>
@@ -882,31 +855,31 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
         <v>55</v>
       </c>
-      <c r="E9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>54</v>
-      </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
@@ -914,102 +887,38 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>

--- a/V1.1/PCB/BOM_Mesh Adv Pi Hat V1.1_PCB V1.1.xlsx
+++ b/V1.1/PCB/BOM_Mesh Adv Pi Hat V1.1_PCB V1.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="BOM_Mesh Adv Pi Hat V1.1_PCB V1" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="BOM_PCB V1.1_SMA_2024-08-31" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>

--- a/V1.1/PCB/BOM_Mesh Adv Pi Hat V1.1_PCB V1.1.xlsx
+++ b/V1.1/PCB/BOM_Mesh Adv Pi Hat V1.1_PCB V1.1.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="BOM_PCB V1.1_SMA_2024-08-31" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="BOM_PCB V1.1_NO_ANT_2024-09-07" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
   <si>
     <t>No.</t>
   </si>
@@ -160,40 +160,22 @@
     <t>7</t>
   </si>
   <si>
-    <t>SMA-KWE903</t>
-  </si>
-  <si>
-    <t>RF1</t>
-  </si>
-  <si>
-    <t>SMA-TH_SMA-KWE903</t>
-  </si>
-  <si>
-    <t>DreamLNK(骏晔科技)</t>
-  </si>
-  <si>
-    <t>C914555</t>
+    <t>E22-900M30S</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>WIRELM-SMD_E22-900M30S</t>
+  </si>
+  <si>
+    <t>EBYTE(亿佰特)</t>
+  </si>
+  <si>
+    <t>C411294</t>
   </si>
   <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>E22-900M30S</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>WIRELM-SMD_E22-900M30S</t>
-  </si>
-  <si>
-    <t>EBYTE(亿佰特)</t>
-  </si>
-  <si>
-    <t>C411294</t>
-  </si>
-  <si>
-    <t>9</t>
   </si>
   <si>
     <t>AMS1117-3.3V_C5120765</t>
@@ -588,7 +570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -873,52 +855,20 @@
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
